--- a/ganntchart.xlsx
+++ b/ganntchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whack-a-mole-cp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D1DB21-5187-4F03-925B-66A744CE2614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A24415-7422-415E-917E-F7C9A6C0F623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1815" windowWidth="21600" windowHeight="11835" xr2:uid="{2582D6AD-059E-460E-AFE7-FF7695595733}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2582D6AD-059E-460E-AFE7-FF7695595733}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,42 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Full Project</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xsxi4qaEnOg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,8 +93,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +418,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E22808-D160-41DC-82E5-2006BEF8EB4F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43804</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43922</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ganntchart.xlsx
+++ b/ganntchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whack-a-mole-cp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A24415-7422-415E-917E-F7C9A6C0F623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C817BB04-E814-446E-81CF-491BE356AD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2582D6AD-059E-460E-AFE7-FF7695595733}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Task</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>https://youtu.be/xsxi4qaEnOg</t>
+  </si>
+  <si>
+    <t>Moles Class</t>
+  </si>
+  <si>
+    <t>Hammer Class</t>
+  </si>
+  <si>
+    <t>Holes Class</t>
+  </si>
+  <si>
+    <t>Buttons Class</t>
+  </si>
+  <si>
+    <t>Menu Class</t>
+  </si>
+  <si>
+    <t>Table Class w/ Point counter</t>
   </si>
 </sst>
 </file>
@@ -418,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E22808-D160-41DC-82E5-2006BEF8EB4F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +480,36 @@
         <v>118</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ganntchart.xlsx
+++ b/ganntchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whack-a-mole-cp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C817BB04-E814-446E-81CF-491BE356AD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE02D223-60B5-4EB1-AF46-8505BC3B5BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2582D6AD-059E-460E-AFE7-FF7695595733}"/>
+    <workbookView xWindow="-10740" yWindow="4590" windowWidth="21600" windowHeight="11835" xr2:uid="{2582D6AD-059E-460E-AFE7-FF7695595733}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -73,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +88,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,10 +118,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,8 +133,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -137,6 +151,963 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Full Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Moles Class</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hammer Class</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Holes Class</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Buttons Class</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Menu Class</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Table Class w/ Point counter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2B2-4D6F-B213-57B7875E3780}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Full Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Moles Class</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hammer Class</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Holes Class</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Buttons Class</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Menu Class</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Table Class w/ Point counter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2B2-4D6F-B213-57B7875E3780}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1547858415"/>
+        <c:axId val="1488965983"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1547858415"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488965983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1488965983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43910"/>
+          <c:min val="43804"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1547858415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D5749C-1393-443A-AACB-38531B5D79E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,19 +1407,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E22808-D160-41DC-82E5-2006BEF8EB4F}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
     <col min="2" max="3" width="10.28515625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,11 +1433,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -480,38 +1452,108 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="3">
+        <v>43837</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43855</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">C3-B3</f>
+        <v>18</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43804</v>
+      </c>
+      <c r="G3" s="5">
+        <v>43910</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="3">
+        <v>43837</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43863</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="3">
+        <v>43856</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43873</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="3">
+        <v>43837</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43895</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="3">
+        <v>43896</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43902</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="3">
+        <v>43837</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43910</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{99919751-8FA7-44E1-A63B-892536E98710}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ganntchart.xlsx
+++ b/ganntchart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whack-a-mole-cp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE02D223-60B5-4EB1-AF46-8505BC3B5BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B678100-3734-47E6-8F61-6859D4C908CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10740" yWindow="4590" windowWidth="21600" windowHeight="11835" xr2:uid="{2582D6AD-059E-460E-AFE7-FF7695595733}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505" xr2:uid="{2582D6AD-059E-460E-AFE7-FF7695595733}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,13 +205,13 @@
                   <c:v>Full Project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Moles Class</c:v>
+                  <c:v>Holes Class</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Hammer Class</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Holes Class</c:v>
+                  <c:v>Moles Class</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Buttons Class</c:v>
@@ -235,22 +235,22 @@
                   <c:v>43804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43837</c:v>
+                  <c:v>43865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43837</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43856</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43837</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43837</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -294,13 +294,13 @@
                   <c:v>Full Project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Moles Class</c:v>
+                  <c:v>Holes Class</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Hammer Class</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Holes Class</c:v>
+                  <c:v>Moles Class</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Buttons Class</c:v>
@@ -324,22 +324,22 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,16 +1073,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2047875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1410,7 +1410,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,17 +1454,17 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>43837</v>
+        <v>43865</v>
       </c>
       <c r="C3" s="3">
-        <v>43855</v>
+        <v>43867</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="0">C3-B3</f>
-        <v>18</v>
+        <f>C3-B3</f>
+        <v>2</v>
       </c>
       <c r="F3" s="5">
         <v>43804</v>
@@ -1478,29 +1478,29 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="C4" s="3">
-        <v>43863</v>
+        <v>43869</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" ref="D3:D8" si="0">C4-B4</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>43856</v>
+        <v>43867</v>
       </c>
       <c r="C5" s="3">
-        <v>43873</v>
+        <v>43869</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>C5-B5</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1508,14 +1508,14 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="C6" s="3">
         <v>43895</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1523,14 +1523,14 @@
         <v>10</v>
       </c>
       <c r="B7" s="3">
-        <v>43896</v>
+        <v>43867</v>
       </c>
       <c r="C7" s="3">
         <v>43902</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1538,14 +1538,14 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="C8" s="3">
         <v>43910</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
